--- a/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Jasmeet.xlsx
+++ b/Fabril Docs Vital/VPL Updated/Employees Excel sheets/May excel/Jasmeet.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="163">
   <si>
     <t>SERVICE NO</t>
   </si>
@@ -483,16 +483,71 @@
   </si>
   <si>
     <t xml:space="preserve">pending </t>
+  </si>
+  <si>
+    <t>807 HUIA ST,HASTINGS</t>
+  </si>
+  <si>
+    <t> Already got paid under S/o: 02939407 for  same address.</t>
+  </si>
+  <si>
+    <t>3 TARBET ST,FLEXMERE</t>
+  </si>
+  <si>
+    <t> Failed install within 7 days - approved by Chris Langley</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Addreess</t>
+  </si>
+  <si>
+    <t>Job ID</t>
+  </si>
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Reason for deduction</t>
+  </si>
+  <si>
+    <t>Skill code</t>
+  </si>
+  <si>
+    <t>Approved Date</t>
+  </si>
+  <si>
+    <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Payment Code</t>
+  </si>
+  <si>
+    <t>Variation Ref No</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Invoice Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,8 +611,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,12 +817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,7 +854,61 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,10 +1793,10 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="10" t="s">
@@ -1727,821 +1886,960 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26">
+      <c r="A2" s="24">
         <v>43116</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>5081330</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="23">
         <v>0</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <v>626.70000000000005</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>433.57</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <v>414.92</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>43438</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <v>498.69</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <v>205.64</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>433.57</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>881.69</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>433.57</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <v>498.69</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>43105</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>43136</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="29">
         <v>0</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>43136</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32">
+      <c r="A22" s="30">
         <v>43164</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="29">
         <v>498.69</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32">
+      <c r="A23" s="30">
         <v>43195</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <v>498.69</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32">
+      <c r="A24" s="30">
         <v>43195</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32">
+      <c r="A25" s="30">
         <v>43225</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <v>433.57</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32">
+      <c r="A26" s="30">
         <v>43286</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G26" s="31"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32">
+      <c r="A27" s="30">
         <v>43317</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>433.57</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>43317</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <v>0</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>43348</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="29">
         <v>0</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>43348</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <v>433.57</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>43378</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <v>626.70000000000005</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>43378</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <v>194.94</v>
       </c>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="32">
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="30">
         <v>43409</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <v>0</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="32">
+    <row r="34" spans="1:15">
+      <c r="A34" s="30">
         <v>43409</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <v>0</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="32">
+    <row r="35" spans="1:15">
+      <c r="A35" s="30">
         <v>43439</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <v>194.94</v>
       </c>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="32">
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="30">
         <v>43439</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="29">
         <v>205.64</v>
       </c>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="32">
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="30">
         <v>43439</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <v>433.57</v>
       </c>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="35" t="s">
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.75">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="51">
         <v>15274.620000000003</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="44" spans="1:15" ht="21">
+      <c r="A44" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M44" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="N44" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="O44" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="63">
+      <c r="A45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="36">
+        <v>2164326</v>
+      </c>
+      <c r="D45" s="36">
+        <v>4189962</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="41">
+        <v>-383.5</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="39">
+        <v>43123</v>
+      </c>
+      <c r="I45" s="39">
+        <v>43123</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="40">
+        <v>383.5</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="1:15" ht="47.25">
+      <c r="A46" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="42">
+        <v>2171378</v>
+      </c>
+      <c r="D46" s="42">
+        <v>4328399</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="41">
+        <v>-127.21</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="45">
+        <v>43146</v>
+      </c>
+      <c r="I46" s="45">
+        <v>43146</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="36">
+        <v>-10.79</v>
+      </c>
+      <c r="M46" s="40">
+        <v>11.79</v>
+      </c>
+      <c r="N46" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O46" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6">
